--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ebfad0"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1422,7 +1428,6 @@
           <t>A permanent walled and roofed construction.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>human construction</t>
@@ -1433,20 +1438,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
           <t>true</t>
@@ -1457,7 +1453,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1468,8 +1463,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1487,7 +1480,6 @@
           <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>building</t>
@@ -1498,20 +1490,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>true</t>
@@ -1522,7 +1505,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1533,8 +1515,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1552,7 +1532,6 @@
           <t>A material entity which has been assembled through the intentional, instinctual, or deliberately programmed efforts of an organism or machine.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>material entity</t>
@@ -1563,24 +1542,16 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
           <t>true</t>
@@ -1591,7 +1562,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1602,8 +1572,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1694,7 +1662,6 @@
           <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>health care facility</t>
@@ -1705,20 +1672,11 @@
           <t>object</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
           <t>0</t>
@@ -1729,7 +1687,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1740,8 +1697,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1759,7 +1714,6 @@
           <t>A disposition which is realised by an environmental system or system parts thereof.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>disposition</t>
@@ -1770,20 +1724,11 @@
           <t>disposition</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>true</t>
@@ -1794,7 +1739,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1805,8 +1749,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1824,7 +1766,6 @@
           <t>A system which has the disposition to environ one or more material entities.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>system</t>
@@ -1835,8 +1776,6 @@
           <t>System</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
           <t>environmental disposition</t>
@@ -1847,16 +1786,11 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
           <t>true</t>
@@ -1867,7 +1801,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1878,8 +1811,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1897,7 +1828,6 @@
           <t>An architectural structure that bears some function.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>site</t>
@@ -1908,24 +1838,16 @@
           <t>site</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
           <t>true</t>
@@ -1936,7 +1858,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1947,8 +1868,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1966,7 +1885,6 @@
           <t>A spatial region whose boundaries are typically defined against some material frame of reference (like the earth).</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>spatial region</t>
@@ -1977,20 +1895,11 @@
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
           <t>true</t>
@@ -2001,7 +1910,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2012,8 +1920,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2031,7 +1937,6 @@
           <t>A geographic region which has causal powers conferred by a legal entity.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>geographic region</t>
@@ -2042,20 +1947,11 @@
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
           <t>true</t>
@@ -2066,7 +1962,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2077,8 +1972,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2096,7 +1989,6 @@
           <t>A geospatial region that delimits the authority of a formally constituted government to exercise its control within the bounded area.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>geolegal region</t>
@@ -2107,20 +1999,11 @@
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
           <t>true</t>
@@ -2131,7 +2014,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2142,8 +2024,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -2291,7 +2171,6 @@
           <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>facility</t>
@@ -2302,20 +2181,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
           <t>0</t>
@@ -2326,7 +2196,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
           <t>RW; JH</t>
@@ -2337,8 +2206,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2356,7 +2223,6 @@
           <t>A health care facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>health care facility</t>
@@ -2367,20 +2233,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
           <t>0</t>
@@ -2391,7 +2248,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>RW; JH</t>
@@ -2402,8 +2258,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2421,7 +2275,6 @@
           <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>hospital facility</t>
@@ -2432,24 +2285,16 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>outpatient clinic</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
           <t>0</t>
@@ -2460,7 +2305,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
           <t>RW; JH</t>
@@ -2471,8 +2315,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2490,7 +2332,6 @@
           <t>A construction that has been assembled by deliberate human effort.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>construction</t>
@@ -2501,20 +2342,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
           <t>true</t>
@@ -2525,7 +2357,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2536,8 +2367,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2768,7 +2597,6 @@
           <t>A research facility in which systems of manufactured products control internal conditions and in which scientific or technological research, experiments, and measurement may be performed.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>research facility</t>
@@ -2779,20 +2607,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
           <t>0</t>
@@ -2803,7 +2622,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2814,8 +2632,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -3097,7 +2913,6 @@
           <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>facility</t>
@@ -3108,20 +2923,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
           <t>true</t>
@@ -3132,7 +2938,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3143,8 +2948,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3162,7 +2965,6 @@
           <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>commercial building</t>
@@ -3173,20 +2975,11 @@
           <t>object</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
         <v>1</v>
       </c>
@@ -3195,7 +2988,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3206,8 +2998,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3225,7 +3015,6 @@
           <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>immaterial entity</t>
@@ -3236,20 +3025,11 @@
           <t>site</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
           <t>true</t>
@@ -3260,7 +3040,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3271,77 +3050,75 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001158</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>social housing</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr"/>
+      <c r="E43" s="3" t="inlineStr">
         <is>
           <t>household residence</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F43" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
+      <c r="G43" s="3" t="inlineStr"/>
+      <c r="H43" s="3" t="inlineStr"/>
+      <c r="I43" s="3" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr">
         <is>
           <t>https://languages.oup.com/google-dictionary-en/</t>
         </is>
       </c>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="inlineStr">
+      <c r="L43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="inlineStr"/>
+      <c r="P43" s="3" t="inlineStr"/>
+      <c r="Q43" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S43" s="2" t="inlineStr"/>
-      <c r="T43" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U43" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V43" s="2" t="inlineStr"/>
-      <c r="W43" s="2" t="inlineStr"/>
+      <c r="R43" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S43" s="3" t="inlineStr"/>
+      <c r="T43" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U43" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="V43" s="3" t="inlineStr"/>
+      <c r="W43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3359,7 +3136,6 @@
           <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>immaterial entity</t>
@@ -3370,20 +3146,11 @@
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
           <t>true</t>
@@ -3394,7 +3161,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3405,8 +3171,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2288,23 +2288,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>ENVO:00000070</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>hospital outpatient clinic facility</t>
+          <t>human construction</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+          <t>A construction that has been assembled by deliberate human effort.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2322,17 +2322,13 @@
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2343,7 +2339,7 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -2355,90 +2351,92 @@
       <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ENVO:00000070</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>human construction</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A construction that has been assembled by deliberate human effort.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>construction</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001280</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>important other</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>A person with whom someone has a sufficiently close relationship that they are willing to discuss important matters.</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr"/>
+      <c r="Q29" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr">
+      <c r="R29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>Because it depends on how the term 'important' is judged.</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr"/>
+      <c r="W29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001280</t>
+          <t>ADDICTO:0001281</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>important other</t>
+          <t>important other who smokes</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>A person with whom someone has a sufficiently close relationship that they are willing to discuss important matters.</t>
+          <t>An important other who smokes tobacco.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>important other</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2470,7 +2468,7 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>Because it depends on how the term 'important' is judged.</t>
+          <t>Because it depends on how the term 'important' is defined.</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
@@ -2489,17 +2487,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001281</t>
+          <t>ADDICTO:0001282</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>important other who smokes</t>
+          <t>important other who vapes nicotine</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>An important other who smokes tobacco.</t>
+          <t>An important other who vapes nicotine.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -2554,151 +2552,153 @@
       <c r="W31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001282</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>important other who vapes nicotine</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>An important other who vapes nicotine.</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>important other</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ENVO:01001406</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>laboratory facility</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A research facility in which systems of manufactured products control internal conditions and in which scientific or technological research, experiments, and measurement may be performed.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>research facility</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000449</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>level of economic development</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Economic_development</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>Because it depends on how the term 'important' is defined.</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr"/>
+      <c r="T33" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U32" s="2" t="inlineStr">
+      <c r="U33" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="V32" s="2" t="inlineStr"/>
-      <c r="W32" s="2" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ENVO:01001406</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>laboratory facility</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A research facility in which systems of manufactured products control internal conditions and in which scientific or technological research, experiments, and measurement may be performed.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>research facility</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr"/>
+      <c r="W33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000449</t>
+          <t>ADDICTO:0001283</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>level of economic development</t>
+          <t>number of important others in a person's social environment</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
+          <t>A data item that is the number of important others in a person's environmental system.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -2720,11 +2720,7 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Economic_development</t>
-        </is>
-      </c>
+      <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr"/>
       <c r="M34" s="2" t="inlineStr"/>
       <c r="N34" s="2" t="inlineStr"/>
@@ -2757,17 +2753,17 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001283</t>
+          <t>ADDICTO:0001284</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>number of important others in a person's social environment</t>
+          <t>number of important others who smoke tobacco in a person's social environment.</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the number of important others in a person's environmental system.</t>
+          <t>A data item that is the number of important others who smoke tobacco in a person's social environment.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
@@ -2822,17 +2818,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001284</t>
+          <t>ADDICTO:0001285</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>number of important others who smoke tobacco in a person's social environment.</t>
+          <t>number of important others who vape nicotine in a person's social environment.</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the number of important others who smoke tobacco in a person's social environment.</t>
+          <t>A data item that is the number of important others who vape nicotine in a person's social environment.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -2885,95 +2881,95 @@
       <c r="W36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001285</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>number of important others who vape nicotine in a person's social environment.</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is the number of important others who vape nicotine in a person's social environment.</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="inlineStr">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>residential facility</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R37" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S37" s="2" t="inlineStr"/>
-      <c r="T37" s="2" t="inlineStr">
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U37" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V37" s="2" t="inlineStr"/>
-      <c r="W37" s="2" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>ENVO:00002221</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>residential facility</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
+          <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>commercial building</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>object</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2990,10 +2986,8 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="Q38" t="n">
+        <v>1</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3017,28 +3011,28 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ENVO:00002221</t>
+          <t>BFO:0000029</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>shop</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>commercial building</t>
+          <t>immaterial entity</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -3055,8 +3049,10 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="n">
-        <v>1</v>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3078,331 +3074,266 @@
       <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001158</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>social housing</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr"/>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>household residence</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr"/>
+      <c r="H40" s="3" t="inlineStr"/>
+      <c r="I40" s="3" t="inlineStr"/>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>https://languages.oup.com/google-dictionary-en/</t>
+        </is>
+      </c>
+      <c r="L40" s="3" t="inlineStr"/>
+      <c r="M40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="inlineStr"/>
+      <c r="O40" s="3" t="inlineStr"/>
+      <c r="P40" s="3" t="inlineStr"/>
+      <c r="Q40" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R40" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S40" s="3" t="inlineStr"/>
+      <c r="T40" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U40" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="V40" s="3" t="inlineStr"/>
+      <c r="W40" s="3" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BFO:0000006</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001158</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t>social housing</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
-      <c r="F41" s="3" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G41" s="3" t="inlineStr"/>
-      <c r="H41" s="3" t="inlineStr"/>
-      <c r="I41" s="3" t="inlineStr"/>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K41" s="3" t="inlineStr">
-        <is>
-          <t>https://languages.oup.com/google-dictionary-en/</t>
-        </is>
-      </c>
-      <c r="L41" s="3" t="inlineStr"/>
-      <c r="M41" s="3" t="inlineStr"/>
-      <c r="N41" s="3" t="inlineStr"/>
-      <c r="O41" s="3" t="inlineStr"/>
-      <c r="P41" s="3" t="inlineStr"/>
-      <c r="Q41" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R41" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S41" s="3" t="inlineStr"/>
-      <c r="T41" s="3" t="inlineStr">
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>A shop that primarily sells products related to vaping devices.</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr"/>
+      <c r="Q42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr"/>
+      <c r="T42" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U41" s="3" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="V41" s="3" t="inlineStr"/>
-      <c r="W41" s="3" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BFO:0000006</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>spatial region</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="inlineStr"/>
+      <c r="W42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BCIO:026002</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>within-country location</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A geographical location within a country where the intervention takes place.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>geographic location</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
         <is>
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>spatial region</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>RW; BG</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000440</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>vape shop</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>A shop that primarily sells products related to vaping devices.</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S43" s="2" t="inlineStr"/>
-      <c r="T43" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U43" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V43" s="2" t="inlineStr"/>
-      <c r="W43" s="2" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>BCIO:026002</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>within-country location</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A geographical location within a country where the intervention takes place.</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>geographic location</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>immaterial entity</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>RW; BG</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -702,7 +702,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>An emergency department facility that is part of a university hospital.</t>
+          <t>An emergency department facility that is part of a university hospital.2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
@@ -743,7 +743,7 @@
       <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; b-</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
